--- a/Code/Results/Cases/Case_0_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_107/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.266731415592691</v>
+        <v>9.778152741487753</v>
       </c>
       <c r="D2">
-        <v>4.542231845499247</v>
+        <v>5.546148107585794</v>
       </c>
       <c r="E2">
-        <v>7.924670570486938</v>
+        <v>12.4848175053883</v>
       </c>
       <c r="F2">
-        <v>20.09061193941351</v>
+        <v>27.44739673838564</v>
       </c>
       <c r="G2">
-        <v>2.083724291417775</v>
+        <v>3.651785335344727</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.80350178992044</v>
+        <v>25.32755383773117</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.90671221992434</v>
+        <v>13.68965849097139</v>
       </c>
       <c r="L2">
-        <v>5.47370429083183</v>
+        <v>9.541650222979287</v>
       </c>
       <c r="M2">
-        <v>14.45322739519293</v>
+        <v>16.55137498137744</v>
       </c>
       <c r="N2">
-        <v>12.36496207297925</v>
+        <v>18.04841408333072</v>
       </c>
       <c r="O2">
-        <v>16.07241447878987</v>
+        <v>24.5579473949477</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.009149839583138</v>
+        <v>9.752335347992043</v>
       </c>
       <c r="D3">
-        <v>4.436791308669228</v>
+        <v>5.51391437142799</v>
       </c>
       <c r="E3">
-        <v>7.821699451825218</v>
+        <v>12.50169040778178</v>
       </c>
       <c r="F3">
-        <v>19.59061618539742</v>
+        <v>27.46674358416147</v>
       </c>
       <c r="G3">
-        <v>2.089103671531091</v>
+        <v>3.653862695487962</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.57742288165932</v>
+        <v>25.38136430671656</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.7498227222036</v>
+        <v>13.30117255470987</v>
       </c>
       <c r="L3">
-        <v>5.501219308797746</v>
+        <v>9.56570237314407</v>
       </c>
       <c r="M3">
-        <v>13.70173975875432</v>
+        <v>16.40082239024794</v>
       </c>
       <c r="N3">
-        <v>12.48482258428768</v>
+        <v>18.0931657096762</v>
       </c>
       <c r="O3">
-        <v>15.91198108463551</v>
+        <v>24.62353342766957</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.849772915314367</v>
+        <v>9.73821545968217</v>
       </c>
       <c r="D4">
-        <v>4.370404551552809</v>
+        <v>5.493761155960094</v>
       </c>
       <c r="E4">
-        <v>7.762632645332503</v>
+        <v>12.51416138523469</v>
       </c>
       <c r="F4">
-        <v>19.29760403329581</v>
+        <v>27.48629850380663</v>
       </c>
       <c r="G4">
-        <v>2.092510673914303</v>
+        <v>3.655206371427738</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.45257459470188</v>
+        <v>25.42027808278433</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.9981050411197</v>
+        <v>13.05831602999087</v>
       </c>
       <c r="L4">
-        <v>5.520571666370701</v>
+        <v>9.581588236039359</v>
       </c>
       <c r="M4">
-        <v>13.2231932315386</v>
+        <v>16.31013318831621</v>
       </c>
       <c r="N4">
-        <v>12.56198942997999</v>
+        <v>18.12243248604794</v>
       </c>
       <c r="O4">
-        <v>15.82856403752718</v>
+        <v>24.66960438277025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.784615165489084</v>
+        <v>9.732901315474333</v>
       </c>
       <c r="D5">
-        <v>4.342959804930535</v>
+        <v>5.48546024391575</v>
       </c>
       <c r="E5">
-        <v>7.73960855654409</v>
+        <v>12.51977418285101</v>
       </c>
       <c r="F5">
-        <v>19.18180393231556</v>
+        <v>27.49619436681756</v>
       </c>
       <c r="G5">
-        <v>2.09392582390397</v>
+        <v>3.655771125900995</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.40515785252877</v>
+        <v>25.43760952160191</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.68134503400955</v>
+        <v>12.95840796502116</v>
       </c>
       <c r="L5">
-        <v>5.529060093071517</v>
+        <v>9.588343197559443</v>
       </c>
       <c r="M5">
-        <v>13.02408573317364</v>
+        <v>16.27365078924971</v>
       </c>
       <c r="N5">
-        <v>12.59432199982886</v>
+        <v>18.13480964145922</v>
       </c>
       <c r="O5">
-        <v>15.79826659437184</v>
+        <v>24.68983338371248</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.773786041904073</v>
+        <v>9.73204558739447</v>
       </c>
       <c r="D6">
-        <v>4.338379652313491</v>
+        <v>5.484076626146912</v>
       </c>
       <c r="E6">
-        <v>7.7358485735247</v>
+        <v>12.5207382377201</v>
       </c>
       <c r="F6">
-        <v>19.16279545017473</v>
+        <v>27.49795384595274</v>
       </c>
       <c r="G6">
-        <v>2.094162442508575</v>
+        <v>3.655865943116327</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.39749158417011</v>
+        <v>25.44057630217275</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.6281169088643</v>
+        <v>12.94176584169644</v>
       </c>
       <c r="L6">
-        <v>5.530505507696794</v>
+        <v>9.589481854404793</v>
       </c>
       <c r="M6">
-        <v>12.99078367601073</v>
+        <v>16.26762253036891</v>
       </c>
       <c r="N6">
-        <v>12.59974402043076</v>
+        <v>18.13689210474011</v>
       </c>
       <c r="O6">
-        <v>15.79345585270399</v>
+        <v>24.69328013406082</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.848894893395241</v>
+        <v>9.738142005079402</v>
       </c>
       <c r="D7">
-        <v>4.370035977237047</v>
+        <v>5.493649561096814</v>
       </c>
       <c r="E7">
-        <v>7.762317899835593</v>
+        <v>12.51423493243694</v>
       </c>
       <c r="F7">
-        <v>19.2960276102845</v>
+        <v>27.48642416515251</v>
       </c>
       <c r="G7">
-        <v>2.092529649951898</v>
+        <v>3.65521391820788</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.45192118309199</v>
+        <v>25.4205058580633</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.99387535507975</v>
+        <v>13.05697225023959</v>
       </c>
       <c r="L7">
-        <v>5.520683726570584</v>
+        <v>9.58167819629511</v>
       </c>
       <c r="M7">
-        <v>13.22052427336218</v>
+        <v>16.30963920972417</v>
       </c>
       <c r="N7">
-        <v>12.56242190361358</v>
+        <v>18.1225975827043</v>
       </c>
       <c r="O7">
-        <v>15.82814060983921</v>
+        <v>24.66987131352826</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.178226120866957</v>
+        <v>9.768894088636925</v>
       </c>
       <c r="D8">
-        <v>4.506230438450221</v>
+        <v>5.535110518016541</v>
       </c>
       <c r="E8">
-        <v>7.88830424143578</v>
+        <v>12.49019715893239</v>
       </c>
       <c r="F8">
-        <v>19.91536610566064</v>
+        <v>27.45247287273303</v>
       </c>
       <c r="G8">
-        <v>2.085557882081329</v>
+        <v>3.652487493394716</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.72262357559612</v>
+        <v>25.34488667865988</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.51638907870291</v>
+        <v>13.55669038812072</v>
       </c>
       <c r="L8">
-        <v>5.482671531158394</v>
+        <v>9.549711583213954</v>
       </c>
       <c r="M8">
-        <v>14.1977847088324</v>
+        <v>16.49912170353333</v>
       </c>
       <c r="N8">
-        <v>12.40554111192688</v>
+        <v>18.06347360924941</v>
       </c>
       <c r="O8">
-        <v>16.01390894795238</v>
+        <v>24.579355183058</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.810545797731189</v>
+        <v>9.842737764286005</v>
       </c>
       <c r="D9">
-        <v>4.759348323401345</v>
+        <v>5.613433846095511</v>
       </c>
       <c r="E9">
-        <v>8.168226847798786</v>
+        <v>12.45980740360474</v>
       </c>
       <c r="F9">
-        <v>21.23661605529359</v>
+        <v>27.44688968148888</v>
       </c>
       <c r="G9">
-        <v>2.072682817876174</v>
+        <v>3.647679399429286</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.36606436783956</v>
+        <v>25.24333811872287</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.17517432812869</v>
+        <v>14.49642725490341</v>
       </c>
       <c r="L9">
-        <v>5.428381287759922</v>
+        <v>9.495881578645136</v>
       </c>
       <c r="M9">
-        <v>16.04674320699211</v>
+        <v>16.88306176462532</v>
       </c>
       <c r="N9">
-        <v>12.12684028817539</v>
+        <v>17.96169075370775</v>
       </c>
       <c r="O9">
-        <v>16.50181493033035</v>
+        <v>24.44804770576543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.262428129286087</v>
+        <v>9.904946891097312</v>
       </c>
       <c r="D10">
-        <v>4.935711359347889</v>
+        <v>5.66901251912207</v>
       </c>
       <c r="E10">
-        <v>8.393644954742756</v>
+        <v>12.44768404004192</v>
       </c>
       <c r="F10">
-        <v>22.26652524060136</v>
+        <v>27.48002559456026</v>
       </c>
       <c r="G10">
-        <v>2.063666345163594</v>
+        <v>3.644471670714005</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.90924725387618</v>
+        <v>25.1973864426861</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.93192636502457</v>
+        <v>15.15515656420622</v>
       </c>
       <c r="L10">
-        <v>5.40192443893018</v>
+        <v>9.461714838509657</v>
       </c>
       <c r="M10">
-        <v>17.46520632793306</v>
+        <v>17.17060274772883</v>
       </c>
       <c r="N10">
-        <v>11.9406707440233</v>
+        <v>17.8954927938444</v>
       </c>
       <c r="O10">
-        <v>16.94022165693609</v>
+        <v>24.37995063680686</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.464492411415197</v>
+        <v>9.934904053710216</v>
       </c>
       <c r="D11">
-        <v>5.013658709033255</v>
+        <v>5.693838860727237</v>
       </c>
       <c r="E11">
-        <v>8.500401534449823</v>
+        <v>12.44438088622389</v>
       </c>
       <c r="F11">
-        <v>22.74670379832401</v>
+        <v>27.50317215562929</v>
       </c>
       <c r="G11">
-        <v>2.059650592128669</v>
+        <v>3.643082179454187</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.17188102820369</v>
+        <v>25.18273060914355</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.68909835199079</v>
+        <v>15.4466323293196</v>
       </c>
       <c r="L11">
-        <v>5.393056330782398</v>
+        <v>9.447336645712141</v>
       </c>
       <c r="M11">
-        <v>18.07715342257383</v>
+        <v>17.30215085023303</v>
       </c>
       <c r="N11">
-        <v>11.86026279741196</v>
+        <v>17.86723086477107</v>
       </c>
       <c r="O11">
-        <v>17.15780568342282</v>
+        <v>24.3551722493715</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.540454918955847</v>
+        <v>9.946479897253841</v>
       </c>
       <c r="D12">
-        <v>5.042832659065641</v>
+        <v>5.703171636809082</v>
       </c>
       <c r="E12">
-        <v>8.541425189034738</v>
+        <v>12.4434475813614</v>
       </c>
       <c r="F12">
-        <v>22.93012102556718</v>
+        <v>27.51309470377905</v>
       </c>
       <c r="G12">
-        <v>2.058141394840135</v>
+        <v>3.642565985311223</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.27357786868268</v>
+        <v>25.17808064812712</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.96984353930851</v>
+        <v>15.55573368573024</v>
       </c>
       <c r="L12">
-        <v>5.390175752164272</v>
+        <v>9.44205918086721</v>
       </c>
       <c r="M12">
-        <v>18.30414847745952</v>
+        <v>17.35203414907289</v>
       </c>
       <c r="N12">
-        <v>11.83045436162748</v>
+        <v>17.8567943579331</v>
       </c>
       <c r="O12">
-        <v>17.24286105857794</v>
+        <v>24.34668344564882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.524120439347822</v>
+        <v>9.943976636533044</v>
       </c>
       <c r="D13">
-        <v>5.036565005390297</v>
+        <v>5.701164743025307</v>
       </c>
       <c r="E13">
-        <v>8.532563581040407</v>
+        <v>12.44363447295787</v>
       </c>
       <c r="F13">
-        <v>22.8905497593848</v>
+        <v>27.51090629583309</v>
       </c>
       <c r="G13">
-        <v>2.058465931318805</v>
+        <v>3.642676714055357</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.25157575741162</v>
+        <v>25.17904205955175</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.90964500582481</v>
+        <v>15.53229487594444</v>
       </c>
       <c r="L13">
-        <v>5.39077453153826</v>
+        <v>9.443188342235672</v>
       </c>
       <c r="M13">
-        <v>18.25547075111995</v>
+        <v>17.34128842849111</v>
       </c>
       <c r="N13">
-        <v>11.83684524035429</v>
+        <v>17.85903024025255</v>
       </c>
       <c r="O13">
-        <v>17.22442376618038</v>
+        <v>24.34847184969145</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.470753277064071</v>
+        <v>9.935851800852014</v>
       </c>
       <c r="D14">
-        <v>5.016065822562488</v>
+        <v>5.69460806074341</v>
       </c>
       <c r="E14">
-        <v>8.503764653359044</v>
+        <v>12.44429774244013</v>
       </c>
       <c r="F14">
-        <v>22.76176239265436</v>
+        <v>27.50396531682219</v>
       </c>
       <c r="G14">
-        <v>2.059526204646118</v>
+        <v>3.643039512200168</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.18020269164015</v>
+        <v>25.18233001232405</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.71231491620001</v>
+        <v>15.45563422418775</v>
       </c>
       <c r="L14">
-        <v>5.392809641698683</v>
+        <v>9.446899114800287</v>
       </c>
       <c r="M14">
-        <v>18.09592303096004</v>
+        <v>17.30625361607377</v>
       </c>
       <c r="N14">
-        <v>11.85779745527186</v>
+        <v>17.86636692609419</v>
       </c>
       <c r="O14">
-        <v>17.16474963971355</v>
+        <v>24.35445593395991</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.437990709485467</v>
+        <v>9.930905076619224</v>
       </c>
       <c r="D15">
-        <v>5.003464390864316</v>
+        <v>5.690582911959424</v>
       </c>
       <c r="E15">
-        <v>8.486202009162414</v>
+        <v>12.4447453476887</v>
       </c>
       <c r="F15">
-        <v>22.68308011627194</v>
+        <v>27.49986437717068</v>
       </c>
       <c r="G15">
-        <v>2.060177121076407</v>
+        <v>3.643263034245658</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.13677696524561</v>
+        <v>25.18446120524253</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.59066763744134</v>
+        <v>15.40850869689602</v>
       </c>
       <c r="L15">
-        <v>5.39411907633181</v>
+        <v>9.449193844481195</v>
       </c>
       <c r="M15">
-        <v>17.99758037185489</v>
+        <v>17.28480162592015</v>
       </c>
       <c r="N15">
-        <v>11.8707154595666</v>
+        <v>17.87089543828012</v>
       </c>
       <c r="O15">
-        <v>17.12854546299863</v>
+        <v>24.35823789037211</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.24914771965696</v>
+        <v>9.90302191715706</v>
       </c>
       <c r="D16">
-        <v>4.930570097894775</v>
+        <v>5.667380634015444</v>
       </c>
       <c r="E16">
-        <v>8.386752199957867</v>
+        <v>12.44794437415928</v>
       </c>
       <c r="F16">
-        <v>22.23537095299172</v>
+        <v>27.47867509603624</v>
       </c>
       <c r="G16">
-        <v>2.063930439341352</v>
+        <v>3.644563875934569</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.89239699964554</v>
+        <v>25.1984700929925</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.88160340973958</v>
+        <v>15.13593471727021</v>
       </c>
       <c r="L16">
-        <v>5.402569591120622</v>
+        <v>9.46267790147016</v>
       </c>
       <c r="M16">
-        <v>17.42454832323033</v>
+        <v>17.1620174805453</v>
       </c>
       <c r="N16">
-        <v>11.94601378786749</v>
+        <v>17.89737698777879</v>
       </c>
       <c r="O16">
-        <v>16.9263717753999</v>
+        <v>24.38169495455057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.132362824702183</v>
+        <v>9.88633647881926</v>
       </c>
       <c r="D17">
-        <v>4.885256406335091</v>
+        <v>5.65302785635344</v>
       </c>
       <c r="E17">
-        <v>8.326815856511779</v>
+        <v>12.450473038948</v>
       </c>
       <c r="F17">
-        <v>21.96363408108013</v>
+        <v>27.46774178772973</v>
       </c>
       <c r="G17">
-        <v>2.066254375667506</v>
+        <v>3.645379721812243</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.74646465902561</v>
+        <v>25.20866549024676</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.43590209657893</v>
+        <v>14.96655103440636</v>
       </c>
       <c r="L17">
-        <v>5.408580323274515</v>
+        <v>9.471248029729566</v>
       </c>
       <c r="M17">
-        <v>17.06451612304163</v>
+        <v>17.08685680045832</v>
       </c>
       <c r="N17">
-        <v>11.99332010331642</v>
+        <v>17.91409641595508</v>
       </c>
       <c r="O17">
-        <v>16.80703200953353</v>
+        <v>24.39767498754642</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.064864389018869</v>
+        <v>9.876895928955708</v>
       </c>
       <c r="D18">
-        <v>4.858979261583189</v>
+        <v>5.644729696732386</v>
       </c>
       <c r="E18">
-        <v>8.292739105992744</v>
+        <v>12.45213568741161</v>
       </c>
       <c r="F18">
-        <v>21.80844146315093</v>
+        <v>27.46221338069851</v>
       </c>
       <c r="G18">
-        <v>2.067599181690259</v>
+        <v>3.645855540163116</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.66399041886927</v>
+        <v>25.2151176287313</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.17559105662775</v>
+        <v>14.86836094657443</v>
       </c>
       <c r="L18">
-        <v>5.412334264111268</v>
+        <v>9.476286954104879</v>
       </c>
       <c r="M18">
-        <v>16.85429547325208</v>
+        <v>17.04369869084426</v>
       </c>
       <c r="N18">
-        <v>12.02093079968977</v>
+        <v>17.92388733003738</v>
       </c>
       <c r="O18">
-        <v>16.7400967891073</v>
+        <v>24.40744964427281</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.041956161450008</v>
+        <v>9.873726593848991</v>
       </c>
       <c r="D19">
-        <v>4.850046015399639</v>
+        <v>5.64191281211295</v>
       </c>
       <c r="E19">
-        <v>8.281269758922742</v>
+        <v>12.45273440887901</v>
       </c>
       <c r="F19">
-        <v>21.75608843125175</v>
+        <v>27.46047219552537</v>
       </c>
       <c r="G19">
-        <v>2.068055933377929</v>
+        <v>3.646017773212238</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.63631686410286</v>
+        <v>25.21740315227718</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.08677318100697</v>
+        <v>14.8349871943908</v>
       </c>
       <c r="L19">
-        <v>5.41365559029545</v>
+        <v>9.478011879595662</v>
       </c>
       <c r="M19">
-        <v>16.7825775105103</v>
+        <v>17.02909968450288</v>
       </c>
       <c r="N19">
-        <v>12.03034753598449</v>
+        <v>17.92723232789001</v>
       </c>
       <c r="O19">
-        <v>16.71772499219252</v>
+        <v>24.41085927794347</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.144829006660276</v>
+        <v>9.888096525288988</v>
       </c>
       <c r="D20">
-        <v>4.890102378372255</v>
+        <v>5.654560185915466</v>
       </c>
       <c r="E20">
-        <v>8.333155151863043</v>
+        <v>12.45018231094241</v>
       </c>
       <c r="F20">
-        <v>21.99244746914553</v>
+        <v>27.46882700581806</v>
       </c>
       <c r="G20">
-        <v>2.066006152400692</v>
+        <v>3.645292194494438</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.76184800126007</v>
+        <v>25.20751930334711</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.48375673129498</v>
+        <v>14.98466213498303</v>
       </c>
       <c r="L20">
-        <v>5.407909603617226</v>
+        <v>9.470324381828558</v>
       </c>
       <c r="M20">
-        <v>17.10316671845275</v>
+        <v>17.09485057480331</v>
       </c>
       <c r="N20">
-        <v>11.98824255725831</v>
+        <v>17.91229856518528</v>
       </c>
       <c r="O20">
-        <v>16.81955899153483</v>
+        <v>24.39591348842325</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.486443932523811</v>
+        <v>9.93823202824381</v>
       </c>
       <c r="D21">
-        <v>5.022096350872826</v>
+        <v>5.696535795968496</v>
       </c>
       <c r="E21">
-        <v>8.512207454023493</v>
+        <v>12.44409431137302</v>
       </c>
       <c r="F21">
-        <v>22.79954806255552</v>
+        <v>27.50597267144082</v>
       </c>
       <c r="G21">
-        <v>2.059214472290282</v>
+        <v>3.642932679238087</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.20110575602831</v>
+        <v>25.18133982896572</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.77043734260274</v>
+        <v>15.47818662591682</v>
       </c>
       <c r="L21">
-        <v>5.392198737224727</v>
+        <v>9.445804633547288</v>
       </c>
       <c r="M21">
-        <v>18.14291414123106</v>
+        <v>17.31654262266877</v>
       </c>
       <c r="N21">
-        <v>11.85162569331958</v>
+        <v>17.86420475820393</v>
       </c>
       <c r="O21">
-        <v>17.18220478255608</v>
+        <v>24.35267397373357</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.70645717592736</v>
+        <v>9.972345771451943</v>
       </c>
       <c r="D22">
-        <v>5.106356778790569</v>
+        <v>5.723569220231779</v>
       </c>
       <c r="E22">
-        <v>8.632706079485283</v>
+        <v>12.44196590839863</v>
       </c>
       <c r="F22">
-        <v>23.33623345456638</v>
+        <v>27.5369935090854</v>
       </c>
       <c r="G22">
-        <v>2.054842191474356</v>
+        <v>3.641448724835154</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.50126342335125</v>
+        <v>25.16947559304815</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.57653505231099</v>
+        <v>15.79326792689518</v>
       </c>
       <c r="L22">
-        <v>5.38472555374905</v>
+        <v>9.430754300102496</v>
       </c>
       <c r="M22">
-        <v>18.79487207603777</v>
+        <v>17.46181526719505</v>
       </c>
       <c r="N22">
-        <v>11.76608444547362</v>
+        <v>17.83432094263928</v>
       </c>
       <c r="O22">
-        <v>17.43474486712299</v>
+        <v>24.32962776291969</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.589344301656302</v>
+        <v>9.95401763950623</v>
       </c>
       <c r="D23">
-        <v>5.06157344561263</v>
+        <v>5.709178480172469</v>
       </c>
       <c r="E23">
-        <v>8.568078224529552</v>
+        <v>12.44293276908875</v>
       </c>
       <c r="F23">
-        <v>23.04898046138325</v>
+        <v>27.51982149012652</v>
       </c>
       <c r="G23">
-        <v>2.057169980364355</v>
+        <v>3.642235437085036</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.33986471825122</v>
+        <v>25.17532742900649</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.14947148659204</v>
+        <v>15.62581592925679</v>
       </c>
       <c r="L23">
-        <v>5.388450808420851</v>
+        <v>9.438697822686875</v>
       </c>
       <c r="M23">
-        <v>18.44941402511424</v>
+        <v>17.38425789722972</v>
       </c>
       <c r="N23">
-        <v>11.81138777274288</v>
+        <v>17.85012903110264</v>
       </c>
       <c r="O23">
-        <v>17.29852316079529</v>
+        <v>24.34145011627554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.139194154510983</v>
+        <v>9.887300333917405</v>
       </c>
       <c r="D24">
-        <v>4.887912216263941</v>
+        <v>5.65386756451648</v>
       </c>
       <c r="E24">
-        <v>8.330287967642217</v>
+        <v>12.45031309838252</v>
       </c>
       <c r="F24">
-        <v>21.97941771301916</v>
+        <v>27.46833401952467</v>
       </c>
       <c r="G24">
-        <v>2.066118346838803</v>
+        <v>3.645331744478695</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.75488875683811</v>
+        <v>25.20803565464506</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.46213433681287</v>
+        <v>14.97647661922482</v>
       </c>
       <c r="L24">
-        <v>5.408211908527089</v>
+        <v>9.470741614644698</v>
       </c>
       <c r="M24">
-        <v>17.08570285954147</v>
+        <v>17.0912364221358</v>
       </c>
       <c r="N24">
-        <v>11.99053682918294</v>
+        <v>17.91311081684302</v>
       </c>
       <c r="O24">
-        <v>16.81389033026493</v>
+        <v>24.39670803226644</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.641426785753384</v>
+        <v>9.82134087180274</v>
       </c>
       <c r="D25">
-        <v>4.692486507475595</v>
+        <v>5.592579812849409</v>
       </c>
       <c r="E25">
-        <v>8.089004579924696</v>
+        <v>12.46623578982444</v>
       </c>
       <c r="F25">
-        <v>20.8683609146464</v>
+        <v>27.44185978365287</v>
       </c>
       <c r="G25">
-        <v>2.076084854490726</v>
+        <v>3.648922833671961</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.17972241292926</v>
+        <v>25.26578748671079</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.49064986613487</v>
+        <v>14.24728956378831</v>
       </c>
       <c r="L25">
-        <v>5.440791502220303</v>
+        <v>9.50949764195034</v>
       </c>
       <c r="M25">
-        <v>15.50744781888235</v>
+        <v>16.77808515138567</v>
       </c>
       <c r="N25">
-        <v>12.19904753134644</v>
+        <v>17.98771511735332</v>
       </c>
       <c r="O25">
-        <v>16.35607749985624</v>
+        <v>24.47860120811982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_107/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.778152741487753</v>
+        <v>7.266731415592637</v>
       </c>
       <c r="D2">
-        <v>5.546148107585794</v>
+        <v>4.542231845499242</v>
       </c>
       <c r="E2">
-        <v>12.4848175053883</v>
+        <v>7.924670570486891</v>
       </c>
       <c r="F2">
-        <v>27.44739673838564</v>
+        <v>20.09061193941351</v>
       </c>
       <c r="G2">
-        <v>3.651785335344727</v>
+        <v>2.083724291417373</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.32755383773117</v>
+        <v>16.80350178992043</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.68965849097139</v>
+        <v>17.90671221992435</v>
       </c>
       <c r="L2">
-        <v>9.541650222979287</v>
+        <v>5.473704290831792</v>
       </c>
       <c r="M2">
-        <v>16.55137498137744</v>
+        <v>14.45322739519293</v>
       </c>
       <c r="N2">
-        <v>18.04841408333072</v>
+        <v>12.36496207297925</v>
       </c>
       <c r="O2">
-        <v>24.5579473949477</v>
+        <v>16.07241447878987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.752335347992043</v>
+        <v>7.00914983958311</v>
       </c>
       <c r="D3">
-        <v>5.51391437142799</v>
+        <v>4.4367913086691</v>
       </c>
       <c r="E3">
-        <v>12.50169040778178</v>
+        <v>7.821699451825204</v>
       </c>
       <c r="F3">
-        <v>27.46674358416147</v>
+        <v>19.59061618539731</v>
       </c>
       <c r="G3">
-        <v>3.653862695487962</v>
+        <v>2.089103671530959</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.38136430671656</v>
+        <v>16.57742288165921</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.30117255470987</v>
+        <v>16.74982272220367</v>
       </c>
       <c r="L3">
-        <v>9.56570237314407</v>
+        <v>5.501219308797746</v>
       </c>
       <c r="M3">
-        <v>16.40082239024794</v>
+        <v>13.70173975875429</v>
       </c>
       <c r="N3">
-        <v>18.0931657096762</v>
+        <v>12.48482258428761</v>
       </c>
       <c r="O3">
-        <v>24.62353342766957</v>
+        <v>15.91198108463539</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.73821545968217</v>
+        <v>6.849772915314234</v>
       </c>
       <c r="D4">
-        <v>5.493761155960094</v>
+        <v>4.370404551552851</v>
       </c>
       <c r="E4">
-        <v>12.51416138523469</v>
+        <v>7.762632645332404</v>
       </c>
       <c r="F4">
-        <v>27.48629850380663</v>
+        <v>19.29760403329566</v>
       </c>
       <c r="G4">
-        <v>3.655206371427738</v>
+        <v>2.092510673914304</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.42027808278433</v>
+        <v>16.4525745947017</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.05831602999087</v>
+        <v>15.99810504111977</v>
       </c>
       <c r="L4">
-        <v>9.581588236039359</v>
+        <v>5.520571666370739</v>
       </c>
       <c r="M4">
-        <v>16.31013318831621</v>
+        <v>13.22319323153854</v>
       </c>
       <c r="N4">
-        <v>18.12243248604794</v>
+        <v>12.56198942997996</v>
       </c>
       <c r="O4">
-        <v>24.66960438277025</v>
+        <v>15.82856403752704</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.732901315474333</v>
+        <v>6.784615165489097</v>
       </c>
       <c r="D5">
-        <v>5.48546024391575</v>
+        <v>4.34295980493065</v>
       </c>
       <c r="E5">
-        <v>12.51977418285101</v>
+        <v>7.739608556544134</v>
       </c>
       <c r="F5">
-        <v>27.49619436681756</v>
+        <v>19.18180393231557</v>
       </c>
       <c r="G5">
-        <v>3.655771125900995</v>
+        <v>2.093925823903835</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.43760952160191</v>
+        <v>16.40515785252882</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.95840796502116</v>
+        <v>15.68134503400953</v>
       </c>
       <c r="L5">
-        <v>9.588343197559443</v>
+        <v>5.529060093071577</v>
       </c>
       <c r="M5">
-        <v>16.27365078924971</v>
+        <v>13.02408573317366</v>
       </c>
       <c r="N5">
-        <v>18.13480964145922</v>
+        <v>12.59432199982886</v>
       </c>
       <c r="O5">
-        <v>24.68983338371248</v>
+        <v>15.79826659437189</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.73204558739447</v>
+        <v>6.773786041904235</v>
       </c>
       <c r="D6">
-        <v>5.484076626146912</v>
+        <v>4.338379652313374</v>
       </c>
       <c r="E6">
-        <v>12.5207382377201</v>
+        <v>7.735848573524705</v>
       </c>
       <c r="F6">
-        <v>27.49795384595274</v>
+        <v>19.16279545017474</v>
       </c>
       <c r="G6">
-        <v>3.655865943116327</v>
+        <v>2.094162442508708</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.44057630217275</v>
+        <v>16.39749158417014</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.94176584169644</v>
+        <v>15.62811690886429</v>
       </c>
       <c r="L6">
-        <v>9.589481854404793</v>
+        <v>5.530505507696732</v>
       </c>
       <c r="M6">
-        <v>16.26762253036891</v>
+        <v>12.99078367601073</v>
       </c>
       <c r="N6">
-        <v>18.13689210474011</v>
+        <v>12.59974402043073</v>
       </c>
       <c r="O6">
-        <v>24.69328013406082</v>
+        <v>15.79345585270396</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.738142005079402</v>
+        <v>6.848894893395216</v>
       </c>
       <c r="D7">
-        <v>5.493649561096814</v>
+        <v>4.370035977236931</v>
       </c>
       <c r="E7">
-        <v>12.51423493243694</v>
+        <v>7.762317899835587</v>
       </c>
       <c r="F7">
-        <v>27.48642416515251</v>
+        <v>19.29602761028441</v>
       </c>
       <c r="G7">
-        <v>3.65521391820788</v>
+        <v>2.092529649951764</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.4205058580633</v>
+        <v>16.45192118309187</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.05697225023959</v>
+        <v>15.99387535507982</v>
       </c>
       <c r="L7">
-        <v>9.58167819629511</v>
+        <v>5.520683726570608</v>
       </c>
       <c r="M7">
-        <v>16.30963920972417</v>
+        <v>13.22052427336214</v>
       </c>
       <c r="N7">
-        <v>18.1225975827043</v>
+        <v>12.56242190361358</v>
       </c>
       <c r="O7">
-        <v>24.66987131352826</v>
+        <v>15.82814060983908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.768894088636925</v>
+        <v>7.178226120866987</v>
       </c>
       <c r="D8">
-        <v>5.535110518016541</v>
+        <v>4.506230438450162</v>
       </c>
       <c r="E8">
-        <v>12.49019715893239</v>
+        <v>7.88830424143587</v>
       </c>
       <c r="F8">
-        <v>27.45247287273303</v>
+        <v>19.91536610566066</v>
       </c>
       <c r="G8">
-        <v>3.652487493394716</v>
+        <v>2.085557882081462</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.34488667865988</v>
+        <v>16.72262357559618</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.55669038812072</v>
+        <v>17.51638907870293</v>
       </c>
       <c r="L8">
-        <v>9.549711583213954</v>
+        <v>5.48267153115845</v>
       </c>
       <c r="M8">
-        <v>16.49912170353333</v>
+        <v>14.19778470883241</v>
       </c>
       <c r="N8">
-        <v>18.06347360924941</v>
+        <v>12.40554111192694</v>
       </c>
       <c r="O8">
-        <v>24.579355183058</v>
+        <v>16.0139089479524</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.842737764286005</v>
+        <v>7.810545797731072</v>
       </c>
       <c r="D9">
-        <v>5.613433846095511</v>
+        <v>4.759348323401403</v>
       </c>
       <c r="E9">
-        <v>12.45980740360474</v>
+        <v>8.168226847798794</v>
       </c>
       <c r="F9">
-        <v>27.44688968148888</v>
+        <v>21.23661605529363</v>
       </c>
       <c r="G9">
-        <v>3.647679399429286</v>
+        <v>2.072682817875906</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.24333811872287</v>
+        <v>17.36606436783954</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.49642725490341</v>
+        <v>20.17517432812869</v>
       </c>
       <c r="L9">
-        <v>9.495881578645136</v>
+        <v>5.42838128776</v>
       </c>
       <c r="M9">
-        <v>16.88306176462532</v>
+        <v>16.04674320699213</v>
       </c>
       <c r="N9">
-        <v>17.96169075370775</v>
+        <v>12.12684028817542</v>
       </c>
       <c r="O9">
-        <v>24.44804770576543</v>
+        <v>16.5018149303304</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.904946891097312</v>
+        <v>8.262428129286182</v>
       </c>
       <c r="D10">
-        <v>5.66901251912207</v>
+        <v>4.935711359347948</v>
       </c>
       <c r="E10">
-        <v>12.44768404004192</v>
+        <v>8.393644954742781</v>
       </c>
       <c r="F10">
-        <v>27.48002559456026</v>
+        <v>22.26652524060133</v>
       </c>
       <c r="G10">
-        <v>3.644471670714005</v>
+        <v>2.063666345163861</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.1973864426861</v>
+        <v>17.90924725387618</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.15515656420622</v>
+        <v>21.93192636502461</v>
       </c>
       <c r="L10">
-        <v>9.461714838509657</v>
+        <v>5.401924438930179</v>
       </c>
       <c r="M10">
-        <v>17.17060274772883</v>
+        <v>17.46520632793306</v>
       </c>
       <c r="N10">
-        <v>17.8954927938444</v>
+        <v>11.94067074402331</v>
       </c>
       <c r="O10">
-        <v>24.37995063680686</v>
+        <v>16.94022165693606</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.934904053710216</v>
+        <v>8.464492411415268</v>
       </c>
       <c r="D11">
-        <v>5.693838860727237</v>
+        <v>5.013658709033315</v>
       </c>
       <c r="E11">
-        <v>12.44438088622389</v>
+        <v>8.500401534449797</v>
       </c>
       <c r="F11">
-        <v>27.50317215562929</v>
+        <v>22.74670379832394</v>
       </c>
       <c r="G11">
-        <v>3.643082179454187</v>
+        <v>2.059650592128801</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.18273060914355</v>
+        <v>18.17188102820366</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.4466323293196</v>
+        <v>22.68909835199079</v>
       </c>
       <c r="L11">
-        <v>9.447336645712141</v>
+        <v>5.393056330782339</v>
       </c>
       <c r="M11">
-        <v>17.30215085023303</v>
+        <v>18.07715342257383</v>
       </c>
       <c r="N11">
-        <v>17.86723086477107</v>
+        <v>11.86026279741197</v>
       </c>
       <c r="O11">
-        <v>24.3551722493715</v>
+        <v>17.15780568342277</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.946479897253841</v>
+        <v>8.54045491895587</v>
       </c>
       <c r="D12">
-        <v>5.703171636809082</v>
+        <v>5.042832659065636</v>
       </c>
       <c r="E12">
-        <v>12.4434475813614</v>
+        <v>8.541425189034799</v>
       </c>
       <c r="F12">
-        <v>27.51309470377905</v>
+        <v>22.93012102556716</v>
       </c>
       <c r="G12">
-        <v>3.642565985311223</v>
+        <v>2.058141394840135</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.17808064812712</v>
+        <v>18.2735778686827</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.55573368573024</v>
+        <v>22.96984353930851</v>
       </c>
       <c r="L12">
-        <v>9.44205918086721</v>
+        <v>5.390175752164325</v>
       </c>
       <c r="M12">
-        <v>17.35203414907289</v>
+        <v>18.3041484774595</v>
       </c>
       <c r="N12">
-        <v>17.8567943579331</v>
+        <v>11.83045436162751</v>
       </c>
       <c r="O12">
-        <v>24.34668344564882</v>
+        <v>17.24286105857794</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.943976636533044</v>
+        <v>8.524120439347893</v>
       </c>
       <c r="D13">
-        <v>5.701164743025307</v>
+        <v>5.036565005390427</v>
       </c>
       <c r="E13">
-        <v>12.44363447295787</v>
+        <v>8.532563581040455</v>
       </c>
       <c r="F13">
-        <v>27.51090629583309</v>
+        <v>22.89054975938478</v>
       </c>
       <c r="G13">
-        <v>3.642676714055357</v>
+        <v>2.05846593131867</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.17904205955175</v>
+        <v>18.25157575741164</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.53229487594444</v>
+        <v>22.9096450058248</v>
       </c>
       <c r="L13">
-        <v>9.443188342235672</v>
+        <v>5.390774531538234</v>
       </c>
       <c r="M13">
-        <v>17.34128842849111</v>
+        <v>18.25547075111994</v>
       </c>
       <c r="N13">
-        <v>17.85903024025255</v>
+        <v>11.83684524035429</v>
       </c>
       <c r="O13">
-        <v>24.34847184969145</v>
+        <v>17.22442376618039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.935851800852014</v>
+        <v>8.470753277064047</v>
       </c>
       <c r="D14">
-        <v>5.69460806074341</v>
+        <v>5.016065822562441</v>
       </c>
       <c r="E14">
-        <v>12.44429774244013</v>
+        <v>8.503764653359097</v>
       </c>
       <c r="F14">
-        <v>27.50396531682219</v>
+        <v>22.76176239265432</v>
       </c>
       <c r="G14">
-        <v>3.643039512200168</v>
+        <v>2.059526204646119</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.18233001232405</v>
+        <v>18.18020269164012</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.45563422418775</v>
+        <v>22.71231491620003</v>
       </c>
       <c r="L14">
-        <v>9.446899114800287</v>
+        <v>5.392809641698718</v>
       </c>
       <c r="M14">
-        <v>17.30625361607377</v>
+        <v>18.09592303096004</v>
       </c>
       <c r="N14">
-        <v>17.86636692609419</v>
+        <v>11.85779745527186</v>
       </c>
       <c r="O14">
-        <v>24.35445593395991</v>
+        <v>17.16474963971351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.930905076619224</v>
+        <v>8.437990709485515</v>
       </c>
       <c r="D15">
-        <v>5.690582911959424</v>
+        <v>5.003464390864266</v>
       </c>
       <c r="E15">
-        <v>12.4447453476887</v>
+        <v>8.486202009162458</v>
       </c>
       <c r="F15">
-        <v>27.49986437717068</v>
+        <v>22.68308011627185</v>
       </c>
       <c r="G15">
-        <v>3.643263034245658</v>
+        <v>2.060177121076675</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.18446120524253</v>
+        <v>18.13677696524552</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.40850869689602</v>
+        <v>22.59066763744143</v>
       </c>
       <c r="L15">
-        <v>9.449193844481195</v>
+        <v>5.394119076331812</v>
       </c>
       <c r="M15">
-        <v>17.28480162592015</v>
+        <v>17.99758037185492</v>
       </c>
       <c r="N15">
-        <v>17.87089543828012</v>
+        <v>11.87071545956658</v>
       </c>
       <c r="O15">
-        <v>24.35823789037211</v>
+        <v>17.12854546299854</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.90302191715706</v>
+        <v>8.24914771965696</v>
       </c>
       <c r="D16">
-        <v>5.667380634015444</v>
+        <v>4.93057009789473</v>
       </c>
       <c r="E16">
-        <v>12.44794437415928</v>
+        <v>8.386752199957909</v>
       </c>
       <c r="F16">
-        <v>27.47867509603624</v>
+        <v>22.2353709529917</v>
       </c>
       <c r="G16">
-        <v>3.644563875934569</v>
+        <v>2.063930439341352</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.1984700929925</v>
+        <v>17.89239699964547</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.13593471727021</v>
+        <v>21.88160340973963</v>
       </c>
       <c r="L16">
-        <v>9.46267790147016</v>
+        <v>5.402569591120705</v>
       </c>
       <c r="M16">
-        <v>17.1620174805453</v>
+        <v>17.42454832323035</v>
       </c>
       <c r="N16">
-        <v>17.89737698777879</v>
+        <v>11.9460137878675</v>
       </c>
       <c r="O16">
-        <v>24.38169495455057</v>
+        <v>16.92637177539985</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.88633647881926</v>
+        <v>8.132362824702112</v>
       </c>
       <c r="D17">
-        <v>5.65302785635344</v>
+        <v>4.885256406335148</v>
       </c>
       <c r="E17">
-        <v>12.450473038948</v>
+        <v>8.326815856511852</v>
       </c>
       <c r="F17">
-        <v>27.46774178772973</v>
+        <v>21.96363408108009</v>
       </c>
       <c r="G17">
-        <v>3.645379721812243</v>
+        <v>2.066254375667775</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.20866549024676</v>
+        <v>17.74646465902557</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.96655103440636</v>
+        <v>21.43590209657892</v>
       </c>
       <c r="L17">
-        <v>9.471248029729566</v>
+        <v>5.408580323274649</v>
       </c>
       <c r="M17">
-        <v>17.08685680045832</v>
+        <v>17.0645161230416</v>
       </c>
       <c r="N17">
-        <v>17.91409641595508</v>
+        <v>11.99332010331642</v>
       </c>
       <c r="O17">
-        <v>24.39767498754642</v>
+        <v>16.80703200953351</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.876895928955708</v>
+        <v>8.064864389018931</v>
       </c>
       <c r="D18">
-        <v>5.644729696732386</v>
+        <v>4.858979261583121</v>
       </c>
       <c r="E18">
-        <v>12.45213568741161</v>
+        <v>8.292739105992739</v>
       </c>
       <c r="F18">
-        <v>27.46221338069851</v>
+        <v>21.80844146315101</v>
       </c>
       <c r="G18">
-        <v>3.645855540163116</v>
+        <v>2.067599181690125</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.2151176287313</v>
+        <v>17.66399041886938</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.86836094657443</v>
+        <v>21.17559105662771</v>
       </c>
       <c r="L18">
-        <v>9.476286954104879</v>
+        <v>5.412334264111212</v>
       </c>
       <c r="M18">
-        <v>17.04369869084426</v>
+        <v>16.85429547325205</v>
       </c>
       <c r="N18">
-        <v>17.92388733003738</v>
+        <v>12.02093079968979</v>
       </c>
       <c r="O18">
-        <v>24.40744964427281</v>
+        <v>16.74009678910739</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.873726593848991</v>
+        <v>8.041956161450061</v>
       </c>
       <c r="D19">
-        <v>5.64191281211295</v>
+        <v>4.850046015399463</v>
       </c>
       <c r="E19">
-        <v>12.45273440887901</v>
+        <v>8.281269758922672</v>
       </c>
       <c r="F19">
-        <v>27.46047219552537</v>
+        <v>21.75608843125174</v>
       </c>
       <c r="G19">
-        <v>3.646017773212238</v>
+        <v>2.068055933378194</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.21740315227718</v>
+        <v>17.6363168641028</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.8349871943908</v>
+        <v>21.08677318100703</v>
       </c>
       <c r="L19">
-        <v>9.478011879595662</v>
+        <v>5.413655590295401</v>
       </c>
       <c r="M19">
-        <v>17.02909968450288</v>
+        <v>16.78257751051036</v>
       </c>
       <c r="N19">
-        <v>17.92723232789001</v>
+        <v>12.03034753598449</v>
       </c>
       <c r="O19">
-        <v>24.41085927794347</v>
+        <v>16.71772499219245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.888096525288988</v>
+        <v>8.144829006660292</v>
       </c>
       <c r="D20">
-        <v>5.654560185915466</v>
+        <v>4.890102378372235</v>
       </c>
       <c r="E20">
-        <v>12.45018231094241</v>
+        <v>8.333155151863087</v>
       </c>
       <c r="F20">
-        <v>27.46882700581806</v>
+        <v>21.99244746914555</v>
       </c>
       <c r="G20">
-        <v>3.645292194494438</v>
+        <v>2.066006152400824</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.20751930334711</v>
+        <v>17.76184800126008</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.98466213498303</v>
+        <v>21.48375673129496</v>
       </c>
       <c r="L20">
-        <v>9.470324381828558</v>
+        <v>5.407909603617254</v>
       </c>
       <c r="M20">
-        <v>17.09485057480331</v>
+        <v>17.10316671845275</v>
       </c>
       <c r="N20">
-        <v>17.91229856518528</v>
+        <v>11.98824255725838</v>
       </c>
       <c r="O20">
-        <v>24.39591348842325</v>
+        <v>16.81955899153486</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.93823202824381</v>
+        <v>8.486443932523811</v>
       </c>
       <c r="D21">
-        <v>5.696535795968496</v>
+        <v>5.022096350872722</v>
       </c>
       <c r="E21">
-        <v>12.44409431137302</v>
+        <v>8.512207454023519</v>
       </c>
       <c r="F21">
-        <v>27.50597267144082</v>
+        <v>22.79954806255549</v>
       </c>
       <c r="G21">
-        <v>3.642932679238087</v>
+        <v>2.059214472290416</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.18133982896572</v>
+        <v>18.20110575602828</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.47818662591682</v>
+        <v>22.77043734260276</v>
       </c>
       <c r="L21">
-        <v>9.445804633547288</v>
+        <v>5.39219873722475</v>
       </c>
       <c r="M21">
-        <v>17.31654262266877</v>
+        <v>18.14291414123106</v>
       </c>
       <c r="N21">
-        <v>17.86420475820393</v>
+        <v>11.85162569331956</v>
       </c>
       <c r="O21">
-        <v>24.35267397373357</v>
+        <v>17.18220478255603</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.972345771451943</v>
+        <v>8.706457175927291</v>
       </c>
       <c r="D22">
-        <v>5.723569220231779</v>
+        <v>5.106356778790619</v>
       </c>
       <c r="E22">
-        <v>12.44196590839863</v>
+        <v>8.632706079485283</v>
       </c>
       <c r="F22">
-        <v>27.5369935090854</v>
+        <v>23.33623345456643</v>
       </c>
       <c r="G22">
-        <v>3.641448724835154</v>
+        <v>2.054842191474355</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.16947559304815</v>
+        <v>18.50126342335131</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.79326792689518</v>
+        <v>23.57653505231093</v>
       </c>
       <c r="L22">
-        <v>9.430754300102496</v>
+        <v>5.3847255537491</v>
       </c>
       <c r="M22">
-        <v>17.46181526719505</v>
+        <v>18.79487207603774</v>
       </c>
       <c r="N22">
-        <v>17.83432094263928</v>
+        <v>11.76608444547364</v>
       </c>
       <c r="O22">
-        <v>24.32962776291969</v>
+        <v>17.43474486712306</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.95401763950623</v>
+        <v>8.589344301656272</v>
       </c>
       <c r="D23">
-        <v>5.709178480172469</v>
+        <v>5.061573445612578</v>
       </c>
       <c r="E23">
-        <v>12.44293276908875</v>
+        <v>8.56807822452951</v>
       </c>
       <c r="F23">
-        <v>27.51982149012652</v>
+        <v>23.04898046138319</v>
       </c>
       <c r="G23">
-        <v>3.642235437085036</v>
+        <v>2.057169980364356</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.17532742900649</v>
+        <v>18.33986471825114</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.62581592925679</v>
+        <v>23.14947148659213</v>
       </c>
       <c r="L23">
-        <v>9.438697822686875</v>
+        <v>5.388450808420767</v>
       </c>
       <c r="M23">
-        <v>17.38425789722972</v>
+        <v>18.44941402511431</v>
       </c>
       <c r="N23">
-        <v>17.85012903110264</v>
+        <v>11.81138777274285</v>
       </c>
       <c r="O23">
-        <v>24.34145011627554</v>
+        <v>17.29852316079518</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.887300333917405</v>
+        <v>8.13919415451115</v>
       </c>
       <c r="D24">
-        <v>5.65386756451648</v>
+        <v>4.887912216263896</v>
       </c>
       <c r="E24">
-        <v>12.45031309838252</v>
+        <v>8.330287967642187</v>
       </c>
       <c r="F24">
-        <v>27.46833401952467</v>
+        <v>21.97941771301905</v>
       </c>
       <c r="G24">
-        <v>3.645331744478695</v>
+        <v>2.066118346838535</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.20803565464506</v>
+        <v>17.75488875683796</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.97647661922482</v>
+        <v>21.46213433681295</v>
       </c>
       <c r="L24">
-        <v>9.470741614644698</v>
+        <v>5.408211908527067</v>
       </c>
       <c r="M24">
-        <v>17.0912364221358</v>
+        <v>17.08570285954153</v>
       </c>
       <c r="N24">
-        <v>17.91311081684302</v>
+        <v>11.99053682918288</v>
       </c>
       <c r="O24">
-        <v>24.39670803226644</v>
+        <v>16.81389033026475</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.82134087180274</v>
+        <v>7.641426785753352</v>
       </c>
       <c r="D25">
-        <v>5.592579812849409</v>
+        <v>4.692486507475426</v>
       </c>
       <c r="E25">
-        <v>12.46623578982444</v>
+        <v>8.089004579924678</v>
       </c>
       <c r="F25">
-        <v>27.44185978365287</v>
+        <v>20.8683609146463</v>
       </c>
       <c r="G25">
-        <v>3.648922833671961</v>
+        <v>2.076084854490457</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.26578748671079</v>
+        <v>17.17972241292911</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.24728956378831</v>
+        <v>19.49064986613492</v>
       </c>
       <c r="L25">
-        <v>9.50949764195034</v>
+        <v>5.440791502220303</v>
       </c>
       <c r="M25">
-        <v>16.77808515138567</v>
+        <v>15.50744781888233</v>
       </c>
       <c r="N25">
-        <v>17.98771511735332</v>
+        <v>12.19904753134635</v>
       </c>
       <c r="O25">
-        <v>24.47860120811982</v>
+        <v>16.35607749985609</v>
       </c>
     </row>
   </sheetData>
